--- a/anova_results_mp.xlsx
+++ b/anova_results_mp.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.21054837202338</v>
+        <v>1256.50975263711</v>
       </c>
       <c r="C2" t="n">
-        <v>1.21054837202338</v>
+        <v>1256.50975263711</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.00000022445631</v>
+        <v>6.99999999998951</v>
       </c>
       <c r="F2" t="n">
-        <v>1.14415968709708</v>
+        <v>1.02171086522804</v>
       </c>
       <c r="G2" t="n">
-        <v>0.345027879964231</v>
+        <v>0.34576965849249</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85385399410433</v>
+        <v>245.520833333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.926926997052166</v>
+        <v>122.760416666666</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7.99999944206546</v>
+        <v>7.0000000000066</v>
       </c>
       <c r="F3" t="n">
-        <v>0.876092626630338</v>
+        <v>0.0998206749012621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.452847714137867</v>
+        <v>0.906264818775156</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>3.45702326243678</v>
+        <v>357.020833333333</v>
       </c>
       <c r="C4" t="n">
-        <v>1.72851163121839</v>
+        <v>178.510416666667</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>7.99999944237361</v>
+        <v>6.99999999998877</v>
       </c>
       <c r="F4" t="n">
-        <v>1.63371689461105</v>
+        <v>0.145152898242082</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25413231666182</v>
+        <v>0.867427189435945</v>
       </c>
     </row>
   </sheetData>
